--- a/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/deleteelastcDialog.xlsx
+++ b/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/deleteelastcDialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -137,18 +137,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Confirm to delete elastic network interface"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Cancel</t>
     </r>
   </si>
@@ -163,12 +151,16 @@
       </rPr>
       <t>OK</t>
     </r>
+  </si>
+  <si>
+    <t>Confirm to delete this elastic network interface “</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -548,11 +540,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -573,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -595,12 +590,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B4" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/deleteelastcDialog.xlsx
+++ b/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/deleteelastcDialog.xlsx
@@ -1,185 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\components\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ch" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ch" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deleteelastcDialog_i18nKey_1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deleteelastcDialog_i18nKey_2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>确认删除弹性网卡“</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deleteelastcDialog_i18nKey_3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>取 消</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deleteelastcDialog_i18nKey_4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>确 定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>deleteelastcDialog_i18nKey_1</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>deleteelastcDialog_i18nKey_2</t>
+  </si>
+  <si>
+    <t>确认删除弹性网卡“</t>
   </si>
   <si>
     <t>Confirm to delete this elastic network interface “</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteelastcDialog_i18nKey_3</t>
+  </si>
+  <si>
+    <t>取 消</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>deleteelastcDialog_i18nKey_4</t>
+  </si>
+  <si>
+    <t>确 定</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -195,24 +91,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -537,19 +424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="23.6640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" width="34.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,48 +448,44 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B4" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>